--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ifnk-Ifnar2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ifnk-Ifnar2.xlsx
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.243992</v>
+        <v>0.062802</v>
       </c>
       <c r="H2">
-        <v>0.7319760000000001</v>
+        <v>0.188406</v>
       </c>
       <c r="I2">
-        <v>0.2418551293141332</v>
+        <v>0.0482629354765083</v>
       </c>
       <c r="J2">
-        <v>0.2418551293141332</v>
+        <v>0.0482629354765083</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>39.893565</v>
+        <v>13.11310966666667</v>
       </c>
       <c r="N2">
-        <v>119.680695</v>
+        <v>39.339329</v>
       </c>
       <c r="O2">
-        <v>0.529712713960779</v>
+        <v>0.2602886552498481</v>
       </c>
       <c r="P2">
-        <v>0.529712713960779</v>
+        <v>0.2602886552498481</v>
       </c>
       <c r="Q2">
-        <v>9.733710711479999</v>
+        <v>0.823529513286</v>
       </c>
       <c r="R2">
-        <v>87.60339640332</v>
+        <v>7.411765619573999</v>
       </c>
       <c r="S2">
-        <v>0.1281137369343247</v>
+        <v>0.01256229457359053</v>
       </c>
       <c r="T2">
-        <v>0.1281137369343247</v>
+        <v>0.01256229457359053</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.243992</v>
+        <v>0.062802</v>
       </c>
       <c r="H3">
-        <v>0.7319760000000001</v>
+        <v>0.188406</v>
       </c>
       <c r="I3">
-        <v>0.2418551293141332</v>
+        <v>0.0482629354765083</v>
       </c>
       <c r="J3">
-        <v>0.2418551293141332</v>
+        <v>0.0482629354765083</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>79.447221</v>
       </c>
       <c r="O3">
-        <v>0.3516373551519884</v>
+        <v>0.5256625072946081</v>
       </c>
       <c r="P3">
-        <v>0.3516373551519884</v>
+        <v>0.5256625072946082</v>
       </c>
       <c r="Q3">
-        <v>6.461495448744</v>
+        <v>1.663148124414</v>
       </c>
       <c r="R3">
-        <v>58.15345903869601</v>
+        <v>14.968333119726</v>
       </c>
       <c r="S3">
-        <v>0.08504529800196391</v>
+        <v>0.02537001567197924</v>
       </c>
       <c r="T3">
-        <v>0.08504529800196392</v>
+        <v>0.02537001567197925</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.243992</v>
+        <v>0.062802</v>
       </c>
       <c r="H4">
-        <v>0.7319760000000001</v>
+        <v>0.188406</v>
       </c>
       <c r="I4">
-        <v>0.2418551293141332</v>
+        <v>0.0482629354765083</v>
       </c>
       <c r="J4">
-        <v>0.2418551293141332</v>
+        <v>0.0482629354765083</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.935727999999999</v>
+        <v>10.783589</v>
       </c>
       <c r="N4">
-        <v>26.807184</v>
+        <v>32.350767</v>
       </c>
       <c r="O4">
-        <v>0.1186499308872327</v>
+        <v>0.2140488374555438</v>
       </c>
       <c r="P4">
-        <v>0.1186499308872327</v>
+        <v>0.2140488374555438</v>
       </c>
       <c r="Q4">
-        <v>2.180246146176</v>
+        <v>0.6772309563779999</v>
       </c>
       <c r="R4">
-        <v>19.622215315584</v>
+        <v>6.095078607401999</v>
       </c>
       <c r="S4">
-        <v>0.02869609437784462</v>
+        <v>0.01033062523093852</v>
       </c>
       <c r="T4">
-        <v>0.02869609437784463</v>
+        <v>0.01033062523093852</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.5410386666666668</v>
+        <v>0.5410386666666667</v>
       </c>
       <c r="H5">
         <v>1.623116</v>
       </c>
       <c r="I5">
-        <v>0.5363002749705436</v>
+        <v>0.415784756212054</v>
       </c>
       <c r="J5">
-        <v>0.5363002749705436</v>
+        <v>0.415784756212054</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>39.893565</v>
+        <v>13.11310966666667</v>
       </c>
       <c r="N5">
-        <v>119.680695</v>
+        <v>39.339329</v>
       </c>
       <c r="O5">
-        <v>0.529712713960779</v>
+        <v>0.2602886552498481</v>
       </c>
       <c r="P5">
-        <v>0.529712713960779</v>
+        <v>0.2602886552498481</v>
       </c>
       <c r="Q5">
-        <v>21.58396121618</v>
+        <v>7.094699369907111</v>
       </c>
       <c r="R5">
-        <v>194.25565094562</v>
+        <v>63.852294329164</v>
       </c>
       <c r="S5">
-        <v>0.2840850741525587</v>
+        <v>0.1082240550678215</v>
       </c>
       <c r="T5">
-        <v>0.2840850741525587</v>
+        <v>0.1082240550678215</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.5410386666666668</v>
+        <v>0.5410386666666667</v>
       </c>
       <c r="H6">
         <v>1.623116</v>
       </c>
       <c r="I6">
-        <v>0.5363002749705436</v>
+        <v>0.415784756212054</v>
       </c>
       <c r="J6">
-        <v>0.5363002749705436</v>
+        <v>0.415784756212054</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>79.447221</v>
       </c>
       <c r="O6">
-        <v>0.3516373551519884</v>
+        <v>0.5256625072946081</v>
       </c>
       <c r="P6">
-        <v>0.3516373551519884</v>
+        <v>0.5256625072946082</v>
       </c>
       <c r="Q6">
         <v>14.328006173404</v>
@@ -818,10 +818,10 @@
         <v>128.952055560636</v>
       </c>
       <c r="S6">
-        <v>0.188583210257926</v>
+        <v>0.2185624574453057</v>
       </c>
       <c r="T6">
-        <v>0.188583210257926</v>
+        <v>0.2185624574453057</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.5410386666666668</v>
+        <v>0.5410386666666667</v>
       </c>
       <c r="H7">
         <v>1.623116</v>
       </c>
       <c r="I7">
-        <v>0.5363002749705436</v>
+        <v>0.415784756212054</v>
       </c>
       <c r="J7">
-        <v>0.5363002749705436</v>
+        <v>0.415784756212054</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.935727999999999</v>
+        <v>10.783589</v>
       </c>
       <c r="N7">
-        <v>26.807184</v>
+        <v>32.350767</v>
       </c>
       <c r="O7">
-        <v>0.1186499308872327</v>
+        <v>0.2140488374555438</v>
       </c>
       <c r="P7">
-        <v>0.1186499308872327</v>
+        <v>0.2140488374555438</v>
       </c>
       <c r="Q7">
-        <v>4.834574362816</v>
+        <v>5.834338614441333</v>
       </c>
       <c r="R7">
-        <v>43.511169265344</v>
+        <v>52.50904752997199</v>
       </c>
       <c r="S7">
-        <v>0.06363199056005887</v>
+        <v>0.08899824369892685</v>
       </c>
       <c r="T7">
-        <v>0.06363199056005887</v>
+        <v>0.08899824369892687</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,22 +900,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.2238046666666667</v>
+        <v>0.6974063333333334</v>
       </c>
       <c r="H8">
-        <v>0.6714140000000001</v>
+        <v>2.092219</v>
       </c>
       <c r="I8">
-        <v>0.2218445957153232</v>
+        <v>0.5359523083114377</v>
       </c>
       <c r="J8">
-        <v>0.2218445957153232</v>
+        <v>0.5359523083114377</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>39.893565</v>
+        <v>13.11310966666667</v>
       </c>
       <c r="N8">
-        <v>119.680695</v>
+        <v>39.339329</v>
       </c>
       <c r="O8">
-        <v>0.529712713960779</v>
+        <v>0.2602886552498481</v>
       </c>
       <c r="P8">
-        <v>0.529712713960779</v>
+        <v>0.2602886552498481</v>
       </c>
       <c r="Q8">
-        <v>8.928366016969999</v>
+        <v>9.145165731227889</v>
       </c>
       <c r="R8">
-        <v>80.35529415273</v>
+        <v>82.30649158105101</v>
       </c>
       <c r="S8">
-        <v>0.1175139028738957</v>
+        <v>0.1395023056084361</v>
       </c>
       <c r="T8">
-        <v>0.1175139028738957</v>
+        <v>0.1395023056084361</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.2238046666666667</v>
+        <v>0.6974063333333334</v>
       </c>
       <c r="H9">
-        <v>0.6714140000000001</v>
+        <v>2.092219</v>
       </c>
       <c r="I9">
-        <v>0.2218445957153232</v>
+        <v>0.5359523083114377</v>
       </c>
       <c r="J9">
-        <v>0.2218445957153232</v>
+        <v>0.5359523083114377</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>79.447221</v>
       </c>
       <c r="O9">
-        <v>0.3516373551519884</v>
+        <v>0.5256625072946081</v>
       </c>
       <c r="P9">
-        <v>0.3516373551519884</v>
+        <v>0.5256625072946082</v>
       </c>
       <c r="Q9">
-        <v>5.926886271166</v>
+        <v>18.468998363711</v>
       </c>
       <c r="R9">
-        <v>53.341976440494</v>
+        <v>166.220985273399</v>
       </c>
       <c r="S9">
-        <v>0.07800884689209837</v>
+        <v>0.2817300341773232</v>
       </c>
       <c r="T9">
-        <v>0.07800884689209839</v>
+        <v>0.2817300341773232</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.2238046666666667</v>
+        <v>0.6974063333333334</v>
       </c>
       <c r="H10">
-        <v>0.6714140000000001</v>
+        <v>2.092219</v>
       </c>
       <c r="I10">
-        <v>0.2218445957153232</v>
+        <v>0.5359523083114377</v>
       </c>
       <c r="J10">
-        <v>0.2218445957153232</v>
+        <v>0.5359523083114377</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.935727999999999</v>
+        <v>10.783589</v>
       </c>
       <c r="N10">
-        <v>26.807184</v>
+        <v>32.350767</v>
       </c>
       <c r="O10">
-        <v>0.1186499308872327</v>
+        <v>0.2140488374555438</v>
       </c>
       <c r="P10">
-        <v>0.1186499308872327</v>
+        <v>0.2140488374555438</v>
       </c>
       <c r="Q10">
-        <v>1.999857626464</v>
+        <v>7.520543264663666</v>
       </c>
       <c r="R10">
-        <v>17.998718638176</v>
+        <v>67.68488938197299</v>
       </c>
       <c r="S10">
-        <v>0.02632184594932917</v>
+        <v>0.1147199685256784</v>
       </c>
       <c r="T10">
-        <v>0.02632184594932917</v>
+        <v>0.1147199685256784</v>
       </c>
     </row>
   </sheetData>
